--- a/ITI/FAIS/StructureDefinition-IHE.FAIS.EnrollmentRequest.xlsx
+++ b/ITI/FAIS/StructureDefinition-IHE.FAIS.EnrollmentRequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="191">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-comment</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-07T10:12:51-05:00</t>
+    <t>2024-11-13T10:59:36-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -428,21 +428,21 @@
     <t>EnrollmentRequest.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -452,13 +452,27 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>EnrollmentRequest.extension:statusReason</t>
+  </si>
+  <si>
+    <t>statusReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://profiles.ihe.net/ITI/FAIS/StructureDefinition/request-statusReason}
+</t>
+  </si>
+  <si>
+    <t>Request Status Reason</t>
+  </si>
+  <si>
+    <t>Captures the reason for the current state of the resource.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>EnrollmentRequest.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -914,7 +928,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN17"/>
+  <dimension ref="A1:AN18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -923,9 +937,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.02734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="35.109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.9609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -933,7 +947,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="50.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="78.2109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1889,7 +1903,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -1908,17 +1922,15 @@
         <v>79</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>138</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>79</v>
@@ -1955,16 +1967,14 @@
         <v>79</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>139</v>
@@ -1991,7 +2001,7 @@
         <v>79</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
@@ -1999,9 +2009,11 @@
         <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="D10" t="s" s="2">
         <v>79</v>
       </c>
@@ -2010,25 +2022,25 @@
         <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2079,7 +2091,7 @@
         <v>79</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -2088,7 +2100,7 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>140</v>
@@ -2108,10 +2120,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2122,25 +2134,25 @@
         <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2191,7 +2203,7 @@
         <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -2203,10 +2215,10 @@
         <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>79</v>
@@ -2220,10 +2232,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2234,19 +2246,19 @@
         <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>151</v>
@@ -2254,9 +2266,7 @@
       <c r="M12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="N12" t="s" s="2">
-        <v>153</v>
-      </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>79</v>
@@ -2281,13 +2291,13 @@
         <v>79</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>79</v>
@@ -2305,13 +2315,13 @@
         <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>79</v>
@@ -2320,7 +2330,7 @@
         <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>79</v>
@@ -2334,10 +2344,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2354,21 +2364,23 @@
         <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>79</v>
@@ -2393,13 +2405,13 @@
         <v>79</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>79</v>
@@ -2417,7 +2429,7 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -2432,7 +2444,7 @@
         <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>79</v>
@@ -2446,10 +2458,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2457,7 +2469,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>89</v>
@@ -2472,13 +2484,13 @@
         <v>79</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2529,7 +2541,7 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -2544,7 +2556,7 @@
         <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>79</v>
@@ -2558,10 +2570,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2569,7 +2581,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>89</v>
@@ -2584,13 +2596,13 @@
         <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2641,7 +2653,7 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -2656,13 +2668,13 @@
         <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>79</v>
@@ -2670,10 +2682,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2681,7 +2693,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>89</v>
@@ -2696,13 +2708,13 @@
         <v>79</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2753,7 +2765,7 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -2768,13 +2780,13 @@
         <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>79</v>
@@ -2782,10 +2794,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2808,18 +2820,16 @@
         <v>79</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>185</v>
-      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>79</v>
       </c>
@@ -2867,7 +2877,7 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -2882,15 +2892,129 @@
         <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AL17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN17" t="s" s="2">
+      <c r="L18" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="P18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q18" s="2"/>
+      <c r="R18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>79</v>
       </c>
     </row>
